--- a/DATA/US-Industry_Education.xlsx
+++ b/DATA/US-Industry_Education.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="25120" windowHeight="15000" tabRatio="680" activeTab="6"/>
+    <workbookView xWindow="220" yWindow="0" windowWidth="25120" windowHeight="15000" tabRatio="680" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="US-Industry_Education.CSV" sheetId="1" r:id="rId1"/>
@@ -13853,8 +13853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13863,6 +13863,7 @@
     <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14626,8 +14627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
